--- a/medicine/Mort/Nécropole_nationale_d'Albert/Nécropole_nationale_d'Albert.xlsx
+++ b/medicine/Mort/Nécropole_nationale_d'Albert/Nécropole_nationale_d'Albert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_d%27Albert</t>
+          <t>Nécropole_nationale_d'Albert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nécropole nationale d'Albert est un cimetière militaire français de la Grande Guerre situé sur le territoire de la commune d'Albert, dans le département de la Somme.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>N%C3%A9cropole_nationale_d%27Albert</t>
+          <t>Nécropole_nationale_d'Albert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cimetière militaire d'Albert se situe à la sortie de la ville, sur la route de Péronne. D'une superficie de 1,83 ha, il fut créé en 1923[1].
-Il regroupe 6 290 corps dont 2 879 en quatre ossuaires[2]. On y voit des tombes de soldats des troupes coloniales de confession musulmane. Trois Britanniques sont également inhumés dans ce cimetière. Les dépouilles qui y sont regroupées proviennent de différents cimetières militaires qui ont été supprimés. Par exemple, quarante-neuf corps se trouvaient dans le vieux cimetière de Fricourt.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cimetière militaire d'Albert se situe à la sortie de la ville, sur la route de Péronne. D'une superficie de 1,83 ha, il fut créé en 1923.
+Il regroupe 6 290 corps dont 2 879 en quatre ossuaires. On y voit des tombes de soldats des troupes coloniales de confession musulmane. Trois Britanniques sont également inhumés dans ce cimetière. Les dépouilles qui y sont regroupées proviennent de différents cimetières militaires qui ont été supprimés. Par exemple, quarante-neuf corps se trouvaient dans le vieux cimetière de Fricourt.
 À l'extrémité nord de la nécropole a été érigée une stèle sur laquelle sont inscrits les noms de soldats inhumés dans les ossuaires.
 </t>
         </is>
